--- a/LALIGA_refereestats.xlsx
+++ b/LALIGA_refereestats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Advancedmetrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862A67F-324D-456D-989B-79CE91D80010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8525366-B35D-46C6-8A3C-051707BCFFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,10 +169,10 @@
     <t>Juan Martínez</t>
   </si>
   <si>
+    <t>Javier Alberola</t>
+  </si>
+  <si>
     <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>Alberola Rojas</t>
   </si>
   <si>
     <t>Mario Melero</t>
@@ -530,24 +530,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -601,13 +601,13 @@
       <c r="E2" s="1">
         <v>59.523809523809526</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20375</v>
       </c>
       <c r="G2" s="1">
         <v>970.23809523809518</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>15875</v>
       </c>
       <c r="I2" s="1">
@@ -620,7 +620,7 @@
         <v>52.047619047619051</v>
       </c>
       <c r="L2" s="1">
-        <v>28.952380952380953</v>
+        <v>37.047619047619051</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -639,13 +639,13 @@
       <c r="E3" s="1">
         <v>45.238095238095241</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>11400</v>
       </c>
       <c r="G3" s="1">
         <v>542.85714285714289</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>6150</v>
       </c>
       <c r="I3" s="1">
@@ -658,7 +658,7 @@
         <v>40.61904761904762</v>
       </c>
       <c r="L3" s="1">
-        <v>26.952380952380953</v>
+        <v>33.714285714285715</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -677,13 +677,13 @@
       <c r="E4" s="1">
         <v>45.75</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>11800</v>
       </c>
       <c r="G4" s="1">
         <v>590</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>6500</v>
       </c>
       <c r="I4" s="1">
@@ -696,7 +696,7 @@
         <v>46.45</v>
       </c>
       <c r="L4" s="1">
-        <v>27.7</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,13 +715,13 @@
       <c r="E5" s="1">
         <v>56.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>18750</v>
       </c>
       <c r="G5" s="1">
         <v>937.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>15650</v>
       </c>
       <c r="I5" s="1">
@@ -734,7 +734,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="L5" s="1">
-        <v>21.4</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -753,13 +753,13 @@
       <c r="E6" s="1">
         <v>58.75</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>19100</v>
       </c>
       <c r="G6" s="1">
         <v>955</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>16950</v>
       </c>
       <c r="I6" s="1">
@@ -772,7 +772,7 @@
         <v>33.5</v>
       </c>
       <c r="L6" s="1">
-        <v>24.85</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
       <c r="E7" s="1">
         <v>61.75</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>19475</v>
       </c>
       <c r="G7" s="1">
         <v>973.75</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>15925</v>
       </c>
       <c r="I7" s="1">
@@ -810,7 +810,7 @@
         <v>38.700000000000003</v>
       </c>
       <c r="L7" s="1">
-        <v>30.1</v>
+        <v>30.65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -829,13 +829,13 @@
       <c r="E8" s="1">
         <v>48</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>12800</v>
       </c>
       <c r="G8" s="1">
         <v>640</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>12050</v>
       </c>
       <c r="I8" s="1">
@@ -848,7 +848,7 @@
         <v>52.6</v>
       </c>
       <c r="L8" s="1">
-        <v>28.4</v>
+        <v>39.85</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -867,13 +867,13 @@
       <c r="E9" s="1">
         <v>46.315789473684212</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>11850</v>
       </c>
       <c r="G9" s="1">
         <v>623.68421052631584</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>7400</v>
       </c>
       <c r="I9" s="1">
@@ -886,7 +886,7 @@
         <v>33.578947368421055</v>
       </c>
       <c r="L9" s="1">
-        <v>24.631578947368421</v>
+        <v>35.421052631578945</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
       <c r="E10" s="1">
         <v>46.578947368421055</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>11850</v>
       </c>
       <c r="G10" s="1">
         <v>623.68421052631584</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>11150</v>
       </c>
       <c r="I10" s="1">
@@ -924,7 +924,7 @@
         <v>37.421052631578945</v>
       </c>
       <c r="L10" s="1">
-        <v>17.526315789473685</v>
+        <v>30.842105263157894</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -943,13 +943,13 @@
       <c r="E11" s="1">
         <v>46.578947368421055</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>10725</v>
       </c>
       <c r="G11" s="1">
         <v>564.47368421052636</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>9550</v>
       </c>
       <c r="I11" s="1">
@@ -962,7 +962,7 @@
         <v>36.05263157894737</v>
       </c>
       <c r="L11" s="1">
-        <v>14.315789473684211</v>
+        <v>31.789473684210527</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,13 +981,13 @@
       <c r="E12" s="1">
         <v>61.05263157894737</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>15050</v>
       </c>
       <c r="G12" s="1">
         <v>792.10526315789468</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>13050</v>
       </c>
       <c r="I12" s="1">
@@ -1000,7 +1000,7 @@
         <v>41.421052631578945</v>
       </c>
       <c r="L12" s="1">
-        <v>28.210526315789473</v>
+        <v>33.263157894736842</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,13 +1019,13 @@
       <c r="E13" s="1">
         <v>61.315789473684212</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>16450</v>
       </c>
       <c r="G13" s="1">
         <v>865.78947368421052</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>13350</v>
       </c>
       <c r="I13" s="1">
@@ -1038,7 +1038,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="1">
-        <v>25</v>
+        <v>32.10526315789474</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1057,13 +1057,13 @@
       <c r="E14" s="1">
         <v>56.05263157894737</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>16275</v>
       </c>
       <c r="G14" s="1">
         <v>856.57894736842104</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>9850</v>
       </c>
       <c r="I14" s="1">
@@ -1076,7 +1076,7 @@
         <v>37.157894736842103</v>
       </c>
       <c r="L14" s="1">
-        <v>25.631578947368421</v>
+        <v>32.789473684210527</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
       <c r="E15" s="1">
         <v>58.055555555555557</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>17200</v>
       </c>
       <c r="G15" s="1">
         <v>955.55555555555554</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>13300</v>
       </c>
       <c r="I15" s="1">
@@ -1133,13 +1133,13 @@
       <c r="E16" s="1">
         <v>59.166666666666664</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>14600</v>
       </c>
       <c r="G16" s="1">
         <v>811.11111111111109</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>10850</v>
       </c>
       <c r="I16" s="1">
@@ -1152,7 +1152,7 @@
         <v>33.777777777777779</v>
       </c>
       <c r="L16" s="1">
-        <v>26.666666666666668</v>
+        <v>31.111111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1171,13 +1171,13 @@
       <c r="E17" s="1">
         <v>52.777777777777779</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>10750</v>
       </c>
       <c r="G17" s="1">
         <v>597.22222222222217</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>10550</v>
       </c>
       <c r="I17" s="1">
@@ -1190,7 +1190,7 @@
         <v>43.222222222222221</v>
       </c>
       <c r="L17" s="1">
-        <v>18</v>
+        <v>24.722222222222221</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
       <c r="E18" s="1">
         <v>51.764705882352942</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>13575</v>
       </c>
       <c r="G18" s="1">
         <v>798.52941176470586</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>6950</v>
       </c>
       <c r="I18" s="1">
@@ -1228,7 +1228,7 @@
         <v>39.529411764705884</v>
       </c>
       <c r="L18" s="1">
-        <v>25.117647058823529</v>
+        <v>27.882352941176471</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,31 +1242,31 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>1065</v>
+        <v>585</v>
       </c>
       <c r="E19" s="1">
-        <v>62.647058823529413</v>
-      </c>
-      <c r="F19">
-        <v>19825</v>
+        <v>34.411764705882355</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4750</v>
       </c>
       <c r="G19" s="1">
-        <v>1166.1764705882354</v>
-      </c>
-      <c r="H19">
-        <v>11600</v>
+        <v>279.41176470588238</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3650</v>
       </c>
       <c r="I19" s="1">
-        <v>682.35294117647061</v>
+        <v>214.70588235294119</v>
       </c>
       <c r="J19" s="1">
-        <v>43</v>
+        <v>45.117647058823529</v>
       </c>
       <c r="K19" s="1">
-        <v>37</v>
+        <v>46.588235294117645</v>
       </c>
       <c r="L19" s="1">
-        <v>24.882352941176471</v>
+        <v>43.705882352941174</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1280,31 +1280,31 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>585</v>
+        <v>1065</v>
       </c>
       <c r="E20" s="1">
-        <v>34.411764705882355</v>
-      </c>
-      <c r="F20">
-        <v>4750</v>
+        <v>62.647058823529413</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19825</v>
       </c>
       <c r="G20" s="1">
-        <v>279.41176470588238</v>
-      </c>
-      <c r="H20">
-        <v>3650</v>
+        <v>1166.1764705882354</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11600</v>
       </c>
       <c r="I20" s="1">
-        <v>214.70588235294119</v>
+        <v>682.35294117647061</v>
       </c>
       <c r="J20" s="1">
-        <v>45.117647058823529</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1">
-        <v>46.588235294117645</v>
+        <v>37</v>
       </c>
       <c r="L20" s="1">
-        <v>31.588235294117649</v>
+        <v>33.058823529411768</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1323,13 +1323,13 @@
       <c r="E21" s="1">
         <v>46.5625</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>8250</v>
       </c>
       <c r="G21" s="1">
         <v>515.625</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>7100</v>
       </c>
       <c r="I21" s="1">
@@ -1342,7 +1342,7 @@
         <v>44.5</v>
       </c>
       <c r="L21" s="1">
-        <v>24.125</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1358,13 +1358,13 @@
       <c r="D22">
         <v>140</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>46.666666666666664</v>
       </c>
       <c r="F22">
         <v>1650</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>550</v>
       </c>
       <c r="H22" t="e">

--- a/LALIGA_refereestats.xlsx
+++ b/LALIGA_refereestats.xlsx
@@ -119,61 +119,61 @@
     <t>Mateo Busquets</t>
   </si>
   <si>
+    <t>Javier Alberola</t>
+  </si>
+  <si>
+    <t>Mario Melero</t>
+  </si>
+  <si>
+    <t>Adrián Cordero</t>
+  </si>
+  <si>
+    <t>Francisco Hernández</t>
+  </si>
+  <si>
+    <t>Víctor García</t>
+  </si>
+  <si>
+    <t>Juan Martínez</t>
+  </si>
+  <si>
+    <t>Alejandro Muñíz</t>
+  </si>
+  <si>
+    <t>José Luis Munuera</t>
+  </si>
+  <si>
+    <t>Juan Pulido</t>
+  </si>
+  <si>
+    <t>Alejandro Quintero</t>
+  </si>
+  <si>
+    <t>Guillermo Cuadra</t>
+  </si>
+  <si>
     <t>Isidro Díaz de Mera</t>
   </si>
   <si>
-    <t>Javier Alberola</t>
-  </si>
-  <si>
-    <t>Mario Melero</t>
-  </si>
-  <si>
-    <t>Adrián Cordero</t>
-  </si>
-  <si>
-    <t>Francisco Hernández</t>
-  </si>
-  <si>
-    <t>Víctor García</t>
-  </si>
-  <si>
-    <t>Juan Martínez</t>
-  </si>
-  <si>
     <t>Alejandro Hernández</t>
   </si>
   <si>
-    <t>Alejandro Muñíz</t>
-  </si>
-  <si>
-    <t>José Luis Munuera</t>
-  </si>
-  <si>
-    <t>Juan Pulido</t>
-  </si>
-  <si>
-    <t>Alejandro Quintero</t>
-  </si>
-  <si>
-    <t>Guillermo Cuadra</t>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
+    <t>Jesús Gil</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Ortiz Arias</t>
+  </si>
+  <si>
+    <t>Pablo González</t>
   </si>
   <si>
     <t>José Sánchez</t>
   </si>
   <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
     <t>César Soto</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Ortiz Arias</t>
-  </si>
-  <si>
-    <t>Pablo González</t>
-  </si>
-  <si>
-    <t>Jesús Gil</t>
   </si>
   <si>
     <t>Jose Maria Sánchez</t>
@@ -315,37 +315,37 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" t="n">
-        <v>300.0</v>
+        <v>360.0</v>
       </c>
       <c r="E3" t="n">
         <v>60.0</v>
       </c>
       <c r="F3" t="n">
-        <v>3950.0</v>
+        <v>4750.0</v>
       </c>
       <c r="G3" t="n">
-        <v>790.0</v>
+        <v>791.6666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>2150.0</v>
+        <v>2650.0</v>
       </c>
       <c r="I3" t="n">
-        <v>430.0</v>
+        <v>441.6666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>33.8</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="K3" t="n">
-        <v>51.8</v>
+        <v>48.666666666666664</v>
       </c>
       <c r="L3" t="n">
-        <v>35.2</v>
+        <v>34.833333333333336</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0547945205479454</v>
+        <v>2.0224719101123596</v>
       </c>
     </row>
     <row r="4">
@@ -356,37 +356,37 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" t="n">
-        <v>210.0</v>
+        <v>90.0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.5</v>
+        <v>18.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2800.0</v>
+        <v>500.0</v>
       </c>
       <c r="G4" t="n">
-        <v>700.0</v>
+        <v>100.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2800.0</v>
+        <v>600.0</v>
       </c>
       <c r="I4" t="n">
-        <v>700.0</v>
+        <v>120.0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.25</v>
+        <v>36.8</v>
       </c>
       <c r="K4" t="n">
-        <v>36.5</v>
+        <v>14.0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.5</v>
+        <v>25.8</v>
       </c>
       <c r="M4" t="n">
-        <v>2.0388349514563107</v>
+        <v>0.8256880733944955</v>
       </c>
     </row>
     <row r="5">
@@ -397,37 +397,37 @@
         <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.0</v>
+        <v>215.0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.5</v>
+        <v>43.0</v>
       </c>
       <c r="F5" t="n">
-        <v>500.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G5" t="n">
-        <v>125.0</v>
+        <v>480.0</v>
       </c>
       <c r="H5" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="I5" t="n">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
       <c r="J5" t="n">
-        <v>46.0</v>
+        <v>45.6</v>
       </c>
       <c r="K5" t="n">
-        <v>17.5</v>
+        <v>45.0</v>
       </c>
       <c r="L5" t="n">
-        <v>32.25</v>
+        <v>45.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9782608695652174</v>
+        <v>1.6044776119402986</v>
       </c>
     </row>
     <row r="6">
@@ -438,37 +438,37 @@
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" t="n">
-        <v>175.0</v>
+        <v>365.0</v>
       </c>
       <c r="E6" t="n">
-        <v>43.75</v>
+        <v>73.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="G6" t="n">
-        <v>500.0</v>
+        <v>1400.0</v>
       </c>
       <c r="H6" t="n">
-        <v>300.0</v>
+        <v>3700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>75.0</v>
+        <v>740.0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.25</v>
+        <v>57.8</v>
       </c>
       <c r="K6" t="n">
-        <v>40.75</v>
+        <v>47.4</v>
       </c>
       <c r="L6" t="n">
-        <v>40.75</v>
+        <v>47.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7156862745098038</v>
+        <v>2.9918032786885247</v>
       </c>
     </row>
     <row r="7">
@@ -479,37 +479,37 @@
         <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7" t="n">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.0</v>
+        <v>53.0</v>
       </c>
       <c r="F7" t="n">
-        <v>5200.0</v>
+        <v>3950.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1300.0</v>
+        <v>790.0</v>
       </c>
       <c r="H7" t="n">
-        <v>2200.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I7" t="n">
-        <v>550.0</v>
+        <v>610.0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.0</v>
+        <v>39.6</v>
       </c>
       <c r="K7" t="n">
-        <v>46.75</v>
+        <v>28.8</v>
       </c>
       <c r="L7" t="n">
-        <v>46.75</v>
+        <v>37.0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>1.9924812030075187</v>
       </c>
     </row>
     <row r="8">
@@ -520,37 +520,37 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" t="n">
-        <v>195.0</v>
+        <v>250.0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.75</v>
+        <v>50.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2750.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G8" t="n">
-        <v>687.5</v>
+        <v>540.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2450.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I8" t="n">
-        <v>612.5</v>
+        <v>700.0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.0</v>
+        <v>37.2</v>
       </c>
       <c r="K8" t="n">
-        <v>24.5</v>
+        <v>28.4</v>
       </c>
       <c r="L8" t="n">
-        <v>34.75</v>
+        <v>25.0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.875</v>
+        <v>1.8518518518518519</v>
       </c>
     </row>
     <row r="9">
@@ -561,37 +561,37 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>190.0</v>
+        <v>365.0</v>
       </c>
       <c r="E9" t="n">
-        <v>47.5</v>
+        <v>73.0</v>
       </c>
       <c r="F9" t="n">
-        <v>2200.0</v>
+        <v>5400.0</v>
       </c>
       <c r="G9" t="n">
-        <v>550.0</v>
+        <v>1080.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2700.0</v>
+        <v>2300.0</v>
       </c>
       <c r="I9" t="n">
-        <v>675.0</v>
+        <v>460.0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.25</v>
+        <v>33.4</v>
       </c>
       <c r="K9" t="n">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="L9" t="n">
-        <v>27.25</v>
+        <v>26.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8627450980392157</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="10">
@@ -602,37 +602,37 @@
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="n">
-        <v>280.0</v>
+        <v>230.0</v>
       </c>
       <c r="E10" t="n">
-        <v>70.0</v>
+        <v>46.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4650.0</v>
+        <v>2450.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1162.5</v>
+        <v>490.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2300.0</v>
+        <v>1450.0</v>
       </c>
       <c r="I10" t="n">
-        <v>575.0</v>
+        <v>290.0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.25</v>
+        <v>36.0</v>
       </c>
       <c r="K10" t="n">
-        <v>36.0</v>
+        <v>53.2</v>
       </c>
       <c r="L10" t="n">
-        <v>30.75</v>
+        <v>30.0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.6923076923076925</v>
+        <v>2.3958333333333335</v>
       </c>
     </row>
     <row r="11">
@@ -643,37 +643,37 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D11" t="n">
-        <v>180.0</v>
+        <v>230.0</v>
       </c>
       <c r="E11" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1900.0</v>
+        <v>2400.0</v>
       </c>
       <c r="G11" t="n">
-        <v>475.0</v>
+        <v>480.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1400.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I11" t="n">
-        <v>350.0</v>
+        <v>480.0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.25</v>
+        <v>21.0</v>
       </c>
       <c r="K11" t="n">
-        <v>52.5</v>
+        <v>44.2</v>
       </c>
       <c r="L11" t="n">
-        <v>35.0</v>
+        <v>18.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -684,37 +684,37 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="n">
-        <v>200.0</v>
+        <v>410.0</v>
       </c>
       <c r="E12" t="n">
-        <v>50.0</v>
+        <v>82.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2250.0</v>
+        <v>8500.0</v>
       </c>
       <c r="G12" t="n">
-        <v>562.5</v>
+        <v>1700.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1250.0</v>
+        <v>5200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>312.5</v>
+        <v>1040.0</v>
       </c>
       <c r="J12" t="n">
-        <v>42.25</v>
+        <v>42.2</v>
       </c>
       <c r="K12" t="n">
-        <v>47.75</v>
+        <v>27.4</v>
       </c>
       <c r="L12" t="n">
-        <v>34.75</v>
+        <v>21.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2.73972602739726</v>
+        <v>3.082706766917293</v>
       </c>
     </row>
     <row r="13">
@@ -728,34 +728,34 @@
         <v>4.0</v>
       </c>
       <c r="D13" t="n">
-        <v>200.0</v>
+        <v>285.0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.0</v>
+        <v>71.25</v>
       </c>
       <c r="F13" t="n">
-        <v>2400.0</v>
+        <v>5500.0</v>
       </c>
       <c r="G13" t="n">
-        <v>600.0</v>
+        <v>1375.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2200.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I13" t="n">
-        <v>550.0</v>
+        <v>687.5</v>
       </c>
       <c r="J13" t="n">
-        <v>26.25</v>
+        <v>39.0</v>
       </c>
       <c r="K13" t="n">
-        <v>52.5</v>
+        <v>42.0</v>
       </c>
       <c r="L13" t="n">
-        <v>20.75</v>
+        <v>28.75</v>
       </c>
       <c r="M13" t="n">
-        <v>2.272727272727273</v>
+        <v>2.638888888888889</v>
       </c>
     </row>
     <row r="14">
@@ -769,34 +769,34 @@
         <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>340.0</v>
+        <v>230.0</v>
       </c>
       <c r="E14" t="n">
-        <v>85.0</v>
+        <v>57.5</v>
       </c>
       <c r="F14" t="n">
-        <v>7300.0</v>
+        <v>4100.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1825.0</v>
+        <v>1025.0</v>
       </c>
       <c r="H14" t="n">
-        <v>4200.0</v>
+        <v>3600.0</v>
       </c>
       <c r="I14" t="n">
-        <v>1050.0</v>
+        <v>900.0</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5</v>
+        <v>35.0</v>
       </c>
       <c r="K14" t="n">
-        <v>30.25</v>
+        <v>36.5</v>
       </c>
       <c r="L14" t="n">
-        <v>23.25</v>
+        <v>34.0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.0357142857142856</v>
+        <v>2.277227722772277</v>
       </c>
     </row>
     <row r="15">
@@ -807,37 +807,37 @@
         <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0</v>
+        <v>210.0</v>
       </c>
       <c r="E15" t="n">
-        <v>56.666666666666664</v>
+        <v>52.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2500.0</v>
+        <v>2800.0</v>
       </c>
       <c r="G15" t="n">
-        <v>833.3333333333334</v>
+        <v>700.0</v>
       </c>
       <c r="H15" t="n">
-        <v>1700.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I15" t="n">
-        <v>566.6666666666666</v>
+        <v>700.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>30.25</v>
       </c>
       <c r="K15" t="n">
-        <v>32.0</v>
+        <v>36.5</v>
       </c>
       <c r="L15" t="n">
-        <v>31.333333333333332</v>
+        <v>36.5</v>
       </c>
       <c r="M15" t="n">
-        <v>2.073170731707317</v>
+        <v>2.0388349514563107</v>
       </c>
     </row>
     <row r="16">
@@ -848,37 +848,37 @@
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="n">
-        <v>130.0</v>
+        <v>180.0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.333333333333336</v>
+        <v>45.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2000.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G16" t="n">
-        <v>666.6666666666666</v>
+        <v>475.0</v>
       </c>
       <c r="H16" t="n">
-        <v>1200.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I16" t="n">
-        <v>400.0</v>
+        <v>350.0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0</v>
+        <v>55.25</v>
       </c>
       <c r="K16" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L16" t="n">
         <v>35.0</v>
       </c>
-      <c r="L16" t="n">
-        <v>31.666666666666668</v>
-      </c>
       <c r="M16" t="n">
-        <v>2.1311475409836067</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -889,37 +889,37 @@
         <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>160.0</v>
+        <v>145.0</v>
       </c>
       <c r="E17" t="n">
-        <v>53.333333333333336</v>
+        <v>36.25</v>
       </c>
       <c r="F17" t="n">
-        <v>2000.0</v>
+        <v>1950.0</v>
       </c>
       <c r="G17" t="n">
-        <v>666.6666666666666</v>
+        <v>487.5</v>
       </c>
       <c r="H17" t="n">
-        <v>600.0</v>
+        <v>1850.0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.0</v>
+        <v>462.5</v>
       </c>
       <c r="J17" t="n">
-        <v>40.333333333333336</v>
+        <v>62.5</v>
       </c>
       <c r="K17" t="n">
-        <v>56.666666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="L17" t="n">
-        <v>40.333333333333336</v>
+        <v>56.25</v>
       </c>
       <c r="M17" t="n">
-        <v>2.051282051282051</v>
+        <v>1.6111111111111112</v>
       </c>
     </row>
     <row r="18">
@@ -930,37 +930,37 @@
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>125.0</v>
+        <v>385.0</v>
       </c>
       <c r="E18" t="n">
-        <v>41.666666666666664</v>
+        <v>96.25</v>
       </c>
       <c r="F18" t="n">
-        <v>1850.0</v>
+        <v>9350.0</v>
       </c>
       <c r="G18" t="n">
-        <v>616.6666666666666</v>
+        <v>2337.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1850.0</v>
+        <v>7800.0</v>
       </c>
       <c r="I18" t="n">
-        <v>616.6666666666666</v>
+        <v>1950.0</v>
       </c>
       <c r="J18" t="n">
-        <v>59.0</v>
+        <v>36.5</v>
       </c>
       <c r="K18" t="n">
-        <v>27.333333333333332</v>
+        <v>19.5</v>
       </c>
       <c r="L18" t="n">
-        <v>50.666666666666664</v>
+        <v>18.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.953125</v>
+        <v>4.529411764705882</v>
       </c>
     </row>
     <row r="19">
@@ -971,37 +971,37 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>115.0</v>
+        <v>165.0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="F19" t="n">
-        <v>1150.0</v>
+        <v>1450.0</v>
       </c>
       <c r="G19" t="n">
-        <v>383.3333333333333</v>
+        <v>362.5</v>
       </c>
       <c r="H19" t="n">
-        <v>200.0</v>
+        <v>1450.0</v>
       </c>
       <c r="I19" t="n">
-        <v>66.66666666666667</v>
+        <v>362.5</v>
       </c>
       <c r="J19" t="n">
-        <v>18.333333333333332</v>
+        <v>46.75</v>
       </c>
       <c r="K19" t="n">
-        <v>40.0</v>
+        <v>32.25</v>
       </c>
       <c r="L19" t="n">
-        <v>31.666666666666668</v>
+        <v>45.5</v>
       </c>
       <c r="M19" t="n">
-        <v>2.169811320754717</v>
+        <v>2.037037037037037</v>
       </c>
     </row>
     <row r="20">
@@ -1012,37 +1012,37 @@
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>145.0</v>
+        <v>160.0</v>
       </c>
       <c r="E20" t="n">
-        <v>48.333333333333336</v>
+        <v>40.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1450.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G20" t="n">
-        <v>483.3333333333333</v>
+        <v>425.0</v>
       </c>
       <c r="H20" t="n">
-        <v>1450.0</v>
+        <v>1400.0</v>
       </c>
       <c r="I20" t="n">
-        <v>483.3333333333333</v>
+        <v>350.0</v>
       </c>
       <c r="J20" t="n">
-        <v>35.0</v>
+        <v>37.5</v>
       </c>
       <c r="K20" t="n">
-        <v>43.0</v>
+        <v>53.75</v>
       </c>
       <c r="L20" t="n">
-        <v>33.333333333333336</v>
+        <v>27.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>1.4678899082568808</v>
       </c>
     </row>
     <row r="21">
@@ -1056,34 +1056,34 @@
         <v>3.0</v>
       </c>
       <c r="D21" t="n">
-        <v>110.0</v>
+        <v>160.0</v>
       </c>
       <c r="E21" t="n">
-        <v>36.666666666666664</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F21" t="n">
-        <v>1100.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G21" t="n">
-        <v>366.6666666666667</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>800.0</v>
+        <v>600.0</v>
       </c>
       <c r="I21" t="n">
-        <v>266.6666666666667</v>
+        <v>200.0</v>
       </c>
       <c r="J21" t="n">
-        <v>46.666666666666664</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K21" t="n">
-        <v>54.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="L21" t="n">
-        <v>33.333333333333336</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="M21" t="n">
-        <v>1.4102564102564104</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
     <row r="22">
@@ -1094,37 +1094,37 @@
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0</v>
+        <v>115.0</v>
       </c>
       <c r="E22" t="n">
-        <v>130.0</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F22" t="n">
-        <v>8100.0</v>
+        <v>1150.0</v>
       </c>
       <c r="G22" t="n">
-        <v>4050.0</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>7000.0</v>
+        <v>200.0</v>
       </c>
       <c r="I22" t="n">
-        <v>3500.0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>23.5</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="K22" t="n">
-        <v>24.5</v>
+        <v>40.0</v>
       </c>
       <c r="L22" t="n">
-        <v>23.0</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="M22" t="n">
-        <v>5.2</v>
+        <v>2.169811320754717</v>
       </c>
     </row>
     <row r="23">
@@ -1135,37 +1135,37 @@
         <v>54</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" t="n">
-        <v>60.0</v>
+        <v>130.0</v>
       </c>
       <c r="E23" t="n">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="F23" t="n">
-        <v>800.0</v>
+        <v>1800.0</v>
       </c>
       <c r="G23" t="n">
-        <v>800.0</v>
+        <v>900.0</v>
       </c>
       <c r="H23" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I23" t="n">
-        <v>900.0</v>
+        <v>750.0</v>
       </c>
       <c r="J23" t="n">
-        <v>42.0</v>
+        <v>61.0</v>
       </c>
       <c r="K23" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="L23" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2222222222222223</v>
+        <v>2.2033898305084745</v>
       </c>
     </row>
   </sheetData>

--- a/LALIGA_refereestats.xlsx
+++ b/LALIGA_refereestats.xlsx
@@ -116,67 +116,67 @@
     <t>22</t>
   </si>
   <si>
+    <t>Mario Melero</t>
+  </si>
+  <si>
+    <t>Adrián Cordero</t>
+  </si>
+  <si>
+    <t>Francisco Hernández</t>
+  </si>
+  <si>
+    <t>Juan Martínez</t>
+  </si>
+  <si>
     <t>Mateo Busquets</t>
   </si>
   <si>
+    <t>Jesús Gil</t>
+  </si>
+  <si>
+    <t>Alejandro Quintero</t>
+  </si>
+  <si>
+    <t>Guillermo Cuadra</t>
+  </si>
+  <si>
     <t>Javier Alberola</t>
   </si>
   <si>
-    <t>Mario Melero</t>
-  </si>
-  <si>
-    <t>Adrián Cordero</t>
-  </si>
-  <si>
-    <t>Francisco Hernández</t>
-  </si>
-  <si>
     <t>Víctor García</t>
   </si>
   <si>
-    <t>Juan Martínez</t>
-  </si>
-  <si>
     <t>Alejandro Muñíz</t>
   </si>
   <si>
     <t>José Luis Munuera</t>
   </si>
   <si>
+    <t>Miguel Ángel Ortiz Arias</t>
+  </si>
+  <si>
+    <t>Isidro Díaz de Mera</t>
+  </si>
+  <si>
+    <t>Jose Maria Sánchez</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
+    <t>César Soto</t>
+  </si>
+  <si>
     <t>Juan Pulido</t>
   </si>
   <si>
-    <t>Alejandro Quintero</t>
-  </si>
-  <si>
-    <t>Guillermo Cuadra</t>
-  </si>
-  <si>
-    <t>Isidro Díaz de Mera</t>
-  </si>
-  <si>
-    <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
-    <t>Jesús Gil</t>
-  </si>
-  <si>
-    <t>Miguel Ángel Ortiz Arias</t>
-  </si>
-  <si>
     <t>Pablo González</t>
   </si>
   <si>
     <t>José Sánchez</t>
-  </si>
-  <si>
-    <t>César Soto</t>
-  </si>
-  <si>
-    <t>Jose Maria Sánchez</t>
   </si>
 </sst>
 </file>
@@ -315,37 +315,37 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>360.0</v>
+        <v>315.0</v>
       </c>
       <c r="E3" t="n">
-        <v>60.0</v>
+        <v>39.375</v>
       </c>
       <c r="F3" t="n">
-        <v>4750.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G3" t="n">
-        <v>791.6666666666666</v>
+        <v>375.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2650.0</v>
+        <v>700.0</v>
       </c>
       <c r="I3" t="n">
-        <v>441.6666666666667</v>
+        <v>87.5</v>
       </c>
       <c r="J3" t="n">
-        <v>42.833333333333336</v>
+        <v>42.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.666666666666664</v>
+        <v>42.125</v>
       </c>
       <c r="L3" t="n">
-        <v>34.833333333333336</v>
+        <v>48.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0224719101123596</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -356,37 +356,37 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>90.0</v>
+        <v>485.0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.0</v>
+        <v>60.625</v>
       </c>
       <c r="F4" t="n">
-        <v>500.0</v>
+        <v>8900.0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0</v>
+        <v>1112.5</v>
       </c>
       <c r="H4" t="n">
-        <v>600.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I4" t="n">
-        <v>120.0</v>
+        <v>700.0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.8</v>
+        <v>42.375</v>
       </c>
       <c r="K4" t="n">
-        <v>14.0</v>
+        <v>37.375</v>
       </c>
       <c r="L4" t="n">
-        <v>25.8</v>
+        <v>35.75</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8256880733944955</v>
+        <v>2.5526315789473686</v>
       </c>
     </row>
     <row r="5">
@@ -397,37 +397,37 @@
         <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>215.0</v>
+        <v>450.0</v>
       </c>
       <c r="E5" t="n">
-        <v>43.0</v>
+        <v>56.25</v>
       </c>
       <c r="F5" t="n">
-        <v>2400.0</v>
+        <v>6350.0</v>
       </c>
       <c r="G5" t="n">
-        <v>480.0</v>
+        <v>793.75</v>
       </c>
       <c r="H5" t="n">
-        <v>300.0</v>
+        <v>6150.0</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>768.75</v>
       </c>
       <c r="J5" t="n">
-        <v>45.6</v>
+        <v>38.875</v>
       </c>
       <c r="K5" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="L5" t="n">
-        <v>45.0</v>
+        <v>34.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.6044776119402986</v>
+        <v>2.0737327188940093</v>
       </c>
     </row>
     <row r="6">
@@ -438,37 +438,37 @@
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>365.0</v>
+        <v>505.0</v>
       </c>
       <c r="E6" t="n">
-        <v>73.0</v>
+        <v>63.125</v>
       </c>
       <c r="F6" t="n">
-        <v>7000.0</v>
+        <v>7200.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1400.0</v>
+        <v>900.0</v>
       </c>
       <c r="H6" t="n">
-        <v>3700.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I6" t="n">
-        <v>740.0</v>
+        <v>500.0</v>
       </c>
       <c r="J6" t="n">
-        <v>57.8</v>
+        <v>35.25</v>
       </c>
       <c r="K6" t="n">
-        <v>47.4</v>
+        <v>42.125</v>
       </c>
       <c r="L6" t="n">
-        <v>47.2</v>
+        <v>30.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.9918032786885247</v>
+        <v>2.31651376146789</v>
       </c>
     </row>
     <row r="7">
@@ -479,37 +479,37 @@
         <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>265.0</v>
+        <v>545.0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.0</v>
+        <v>68.125</v>
       </c>
       <c r="F7" t="n">
-        <v>3950.0</v>
+        <v>8050.0</v>
       </c>
       <c r="G7" t="n">
-        <v>790.0</v>
+        <v>1006.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3050.0</v>
+        <v>5950.0</v>
       </c>
       <c r="I7" t="n">
-        <v>610.0</v>
+        <v>743.75</v>
       </c>
       <c r="J7" t="n">
-        <v>39.6</v>
+        <v>40.75</v>
       </c>
       <c r="K7" t="n">
-        <v>28.8</v>
+        <v>38.25</v>
       </c>
       <c r="L7" t="n">
-        <v>37.0</v>
+        <v>27.875</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9924812030075187</v>
+        <v>2.3191489361702127</v>
       </c>
     </row>
     <row r="8">
@@ -520,37 +520,37 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" t="n">
-        <v>250.0</v>
+        <v>675.0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.0</v>
+        <v>84.375</v>
       </c>
       <c r="F8" t="n">
-        <v>2700.0</v>
+        <v>14450.0</v>
       </c>
       <c r="G8" t="n">
-        <v>540.0</v>
+        <v>1806.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3500.0</v>
+        <v>11300.0</v>
       </c>
       <c r="I8" t="n">
-        <v>700.0</v>
+        <v>1412.5</v>
       </c>
       <c r="J8" t="n">
-        <v>37.2</v>
+        <v>42.75</v>
       </c>
       <c r="K8" t="n">
-        <v>28.4</v>
+        <v>24.625</v>
       </c>
       <c r="L8" t="n">
-        <v>25.0</v>
+        <v>23.875</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8518518518518519</v>
+        <v>3.9244186046511627</v>
       </c>
     </row>
     <row r="9">
@@ -561,37 +561,37 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" t="n">
-        <v>365.0</v>
+        <v>345.0</v>
       </c>
       <c r="E9" t="n">
-        <v>73.0</v>
+        <v>49.285714285714285</v>
       </c>
       <c r="F9" t="n">
-        <v>5400.0</v>
+        <v>5800.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1080.0</v>
+        <v>828.5714285714286</v>
       </c>
       <c r="H9" t="n">
-        <v>2300.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I9" t="n">
-        <v>460.0</v>
+        <v>435.7142857142857</v>
       </c>
       <c r="J9" t="n">
-        <v>33.4</v>
+        <v>39.142857142857146</v>
       </c>
       <c r="K9" t="n">
-        <v>32.2</v>
+        <v>52.285714285714285</v>
       </c>
       <c r="L9" t="n">
-        <v>26.6</v>
+        <v>42.57142857142857</v>
       </c>
       <c r="M9" t="n">
-        <v>2.92</v>
+        <v>1.8449197860962567</v>
       </c>
     </row>
     <row r="10">
@@ -602,37 +602,37 @@
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D10" t="n">
-        <v>230.0</v>
+        <v>395.0</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="F10" t="n">
-        <v>2450.0</v>
+        <v>6850.0</v>
       </c>
       <c r="G10" t="n">
-        <v>490.0</v>
+        <v>978.5714285714286</v>
       </c>
       <c r="H10" t="n">
-        <v>1450.0</v>
+        <v>4950.0</v>
       </c>
       <c r="I10" t="n">
-        <v>290.0</v>
+        <v>707.1428571428571</v>
       </c>
       <c r="J10" t="n">
-        <v>36.0</v>
+        <v>24.857142857142858</v>
       </c>
       <c r="K10" t="n">
-        <v>53.2</v>
+        <v>33.42857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>30.0</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="M10" t="n">
-        <v>2.3958333333333335</v>
+        <v>2.323529411764706</v>
       </c>
     </row>
     <row r="11">
@@ -643,37 +643,37 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n">
-        <v>230.0</v>
+        <v>180.0</v>
       </c>
       <c r="E11" t="n">
-        <v>46.0</v>
+        <v>25.714285714285715</v>
       </c>
       <c r="F11" t="n">
-        <v>2400.0</v>
+        <v>1700.0</v>
       </c>
       <c r="G11" t="n">
-        <v>480.0</v>
+        <v>242.85714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>2400.0</v>
+        <v>600.0</v>
       </c>
       <c r="I11" t="n">
-        <v>480.0</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="J11" t="n">
-        <v>21.0</v>
+        <v>40.142857142857146</v>
       </c>
       <c r="K11" t="n">
-        <v>44.2</v>
+        <v>17.0</v>
       </c>
       <c r="L11" t="n">
-        <v>18.8</v>
+        <v>32.285714285714285</v>
       </c>
       <c r="M11" t="n">
-        <v>2.0</v>
+        <v>1.1538461538461537</v>
       </c>
     </row>
     <row r="12">
@@ -684,37 +684,37 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D12" t="n">
-        <v>410.0</v>
+        <v>340.0</v>
       </c>
       <c r="E12" t="n">
-        <v>82.0</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="F12" t="n">
-        <v>8500.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1700.0</v>
+        <v>542.8571428571429</v>
       </c>
       <c r="H12" t="n">
-        <v>5200.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1040.0</v>
+        <v>600.0</v>
       </c>
       <c r="J12" t="n">
-        <v>42.2</v>
+        <v>41.142857142857146</v>
       </c>
       <c r="K12" t="n">
-        <v>27.4</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="L12" t="n">
-        <v>21.8</v>
+        <v>29.571428571428573</v>
       </c>
       <c r="M12" t="n">
-        <v>3.082706766917293</v>
+        <v>1.7258883248730965</v>
       </c>
     </row>
     <row r="13">
@@ -725,37 +725,37 @@
         <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" t="n">
-        <v>285.0</v>
+        <v>345.0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.25</v>
+        <v>49.285714285714285</v>
       </c>
       <c r="F13" t="n">
-        <v>5500.0</v>
+        <v>4450.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1375.0</v>
+        <v>635.7142857142857</v>
       </c>
       <c r="H13" t="n">
-        <v>2750.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I13" t="n">
-        <v>687.5</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="J13" t="n">
-        <v>39.0</v>
+        <v>39.857142857142854</v>
       </c>
       <c r="K13" t="n">
-        <v>42.0</v>
+        <v>53.57142857142857</v>
       </c>
       <c r="L13" t="n">
-        <v>28.75</v>
+        <v>32.57142857142857</v>
       </c>
       <c r="M13" t="n">
-        <v>2.638888888888889</v>
+        <v>2.2549019607843137</v>
       </c>
     </row>
     <row r="14">
@@ -766,37 +766,37 @@
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14" t="n">
-        <v>230.0</v>
+        <v>380.0</v>
       </c>
       <c r="E14" t="n">
-        <v>57.5</v>
+        <v>54.285714285714285</v>
       </c>
       <c r="F14" t="n">
-        <v>4100.0</v>
+        <v>5800.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1025.0</v>
+        <v>828.5714285714286</v>
       </c>
       <c r="H14" t="n">
-        <v>3600.0</v>
+        <v>5400.0</v>
       </c>
       <c r="I14" t="n">
-        <v>900.0</v>
+        <v>771.4285714285714</v>
       </c>
       <c r="J14" t="n">
-        <v>35.0</v>
+        <v>26.857142857142858</v>
       </c>
       <c r="K14" t="n">
-        <v>36.5</v>
+        <v>41.714285714285715</v>
       </c>
       <c r="L14" t="n">
-        <v>34.0</v>
+        <v>23.571428571428573</v>
       </c>
       <c r="M14" t="n">
-        <v>2.277227722772277</v>
+        <v>2.4203821656050954</v>
       </c>
     </row>
     <row r="15">
@@ -807,37 +807,37 @@
         <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" t="n">
-        <v>210.0</v>
+        <v>370.0</v>
       </c>
       <c r="E15" t="n">
-        <v>52.5</v>
+        <v>52.857142857142854</v>
       </c>
       <c r="F15" t="n">
-        <v>2800.0</v>
+        <v>4600.0</v>
       </c>
       <c r="G15" t="n">
-        <v>700.0</v>
+        <v>657.1428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>2800.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I15" t="n">
-        <v>700.0</v>
+        <v>571.4285714285714</v>
       </c>
       <c r="J15" t="n">
-        <v>30.25</v>
+        <v>45.142857142857146</v>
       </c>
       <c r="K15" t="n">
-        <v>36.5</v>
+        <v>25.0</v>
       </c>
       <c r="L15" t="n">
-        <v>36.5</v>
+        <v>37.57142857142857</v>
       </c>
       <c r="M15" t="n">
-        <v>2.0388349514563107</v>
+        <v>2.6056338028169015</v>
       </c>
     </row>
     <row r="16">
@@ -848,37 +848,37 @@
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" t="n">
-        <v>180.0</v>
+        <v>330.0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1900.0</v>
+        <v>4400.0</v>
       </c>
       <c r="G16" t="n">
-        <v>475.0</v>
+        <v>733.3333333333334</v>
       </c>
       <c r="H16" t="n">
-        <v>1400.0</v>
+        <v>3800.0</v>
       </c>
       <c r="I16" t="n">
-        <v>350.0</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="J16" t="n">
-        <v>55.25</v>
+        <v>37.833333333333336</v>
       </c>
       <c r="K16" t="n">
-        <v>52.5</v>
+        <v>37.0</v>
       </c>
       <c r="L16" t="n">
-        <v>35.0</v>
+        <v>33.166666666666664</v>
       </c>
       <c r="M16" t="n">
-        <v>1.6666666666666667</v>
+        <v>2.0245398773006134</v>
       </c>
     </row>
     <row r="17">
@@ -889,37 +889,37 @@
         <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D17" t="n">
-        <v>145.0</v>
+        <v>310.0</v>
       </c>
       <c r="E17" t="n">
-        <v>36.25</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F17" t="n">
-        <v>1950.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G17" t="n">
-        <v>487.5</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1850.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I17" t="n">
-        <v>462.5</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>62.5</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="K17" t="n">
-        <v>42.5</v>
+        <v>35.5</v>
       </c>
       <c r="L17" t="n">
-        <v>56.25</v>
+        <v>35.0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.6111111111111112</v>
+        <v>1.8674698795180722</v>
       </c>
     </row>
     <row r="18">
@@ -930,37 +930,37 @@
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18" t="n">
-        <v>385.0</v>
+        <v>290.0</v>
       </c>
       <c r="E18" t="n">
-        <v>96.25</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="F18" t="n">
-        <v>9350.0</v>
+        <v>3100.0</v>
       </c>
       <c r="G18" t="n">
-        <v>2337.5</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>7800.0</v>
+        <v>2800.0</v>
       </c>
       <c r="I18" t="n">
-        <v>1950.0</v>
+        <v>466.6666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>36.5</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="K18" t="n">
-        <v>19.5</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="L18" t="n">
-        <v>18.75</v>
+        <v>31.166666666666668</v>
       </c>
       <c r="M18" t="n">
-        <v>4.529411764705882</v>
+        <v>1.7682926829268293</v>
       </c>
     </row>
     <row r="19">
@@ -971,37 +971,37 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19" t="n">
-        <v>165.0</v>
+        <v>240.0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.25</v>
+        <v>40.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1450.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G19" t="n">
-        <v>362.5</v>
+        <v>500.0</v>
       </c>
       <c r="H19" t="n">
-        <v>1450.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I19" t="n">
-        <v>362.5</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>46.75</v>
+        <v>52.333333333333336</v>
       </c>
       <c r="K19" t="n">
-        <v>32.25</v>
+        <v>43.0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.5</v>
+        <v>48.166666666666664</v>
       </c>
       <c r="M19" t="n">
-        <v>2.037037037037037</v>
+        <v>1.7518248175182483</v>
       </c>
     </row>
     <row r="20">
@@ -1012,37 +1012,37 @@
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20" t="n">
-        <v>160.0</v>
+        <v>350.0</v>
       </c>
       <c r="E20" t="n">
-        <v>40.0</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="F20" t="n">
-        <v>1700.0</v>
+        <v>6400.0</v>
       </c>
       <c r="G20" t="n">
-        <v>425.0</v>
+        <v>1066.6666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>1400.0</v>
+        <v>3100.0</v>
       </c>
       <c r="I20" t="n">
-        <v>350.0</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="J20" t="n">
-        <v>37.5</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K20" t="n">
-        <v>53.75</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="L20" t="n">
-        <v>27.5</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="M20" t="n">
-        <v>1.4678899082568808</v>
+        <v>2.6923076923076925</v>
       </c>
     </row>
     <row r="21">
@@ -1053,37 +1053,37 @@
         <v>52</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21" t="n">
-        <v>160.0</v>
+        <v>465.0</v>
       </c>
       <c r="E21" t="n">
-        <v>53.333333333333336</v>
+        <v>77.5</v>
       </c>
       <c r="F21" t="n">
-        <v>2000.0</v>
+        <v>9200.0</v>
       </c>
       <c r="G21" t="n">
-        <v>666.6666666666666</v>
+        <v>1533.3333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>600.0</v>
+        <v>5650.0</v>
       </c>
       <c r="I21" t="n">
-        <v>200.0</v>
+        <v>941.6666666666666</v>
       </c>
       <c r="J21" t="n">
-        <v>40.333333333333336</v>
+        <v>42.0</v>
       </c>
       <c r="K21" t="n">
-        <v>56.666666666666664</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="L21" t="n">
-        <v>40.333333333333336</v>
+        <v>25.0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.051282051282051</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
@@ -1094,37 +1094,37 @@
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D22" t="n">
-        <v>115.0</v>
+        <v>250.0</v>
       </c>
       <c r="E22" t="n">
-        <v>38.333333333333336</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="F22" t="n">
-        <v>1150.0</v>
+        <v>2700.0</v>
       </c>
       <c r="G22" t="n">
-        <v>383.3333333333333</v>
+        <v>450.0</v>
       </c>
       <c r="H22" t="n">
-        <v>200.0</v>
+        <v>2100.0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.66666666666667</v>
+        <v>350.0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.333333333333332</v>
+        <v>42.5</v>
       </c>
       <c r="K22" t="n">
-        <v>40.0</v>
+        <v>50.5</v>
       </c>
       <c r="L22" t="n">
-        <v>31.666666666666668</v>
+        <v>28.666666666666668</v>
       </c>
       <c r="M22" t="n">
-        <v>2.169811320754717</v>
+        <v>1.5060240963855422</v>
       </c>
     </row>
     <row r="23">
@@ -1135,37 +1135,37 @@
         <v>54</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>130.0</v>
+        <v>160.0</v>
       </c>
       <c r="E23" t="n">
-        <v>65.0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F23" t="n">
-        <v>1800.0</v>
+        <v>2000.0</v>
       </c>
       <c r="G23" t="n">
-        <v>900.0</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="H23" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="I23" t="n">
-        <v>750.0</v>
+        <v>200.0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="K23" t="n">
-        <v>39.0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="L23" t="n">
-        <v>39.0</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="M23" t="n">
-        <v>2.2033898305084745</v>
+        <v>2.051282051282051</v>
       </c>
     </row>
   </sheetData>

--- a/LALIGA_refereestats.xlsx
+++ b/LALIGA_refereestats.xlsx
@@ -116,6 +116,15 @@
     <t>22</t>
   </si>
   <si>
+    <t>Mateo Busquets</t>
+  </si>
+  <si>
+    <t>Alejandro Quintero</t>
+  </si>
+  <si>
+    <t>Javier Alberola</t>
+  </si>
+  <si>
     <t>Mario Melero</t>
   </si>
   <si>
@@ -125,55 +134,46 @@
     <t>Francisco Hernández</t>
   </si>
   <si>
+    <t>Víctor García</t>
+  </si>
+  <si>
     <t>Juan Martínez</t>
   </si>
   <si>
-    <t>Mateo Busquets</t>
+    <t>Alejandro Muñíz</t>
   </si>
   <si>
     <t>Jesús Gil</t>
   </si>
   <si>
-    <t>Alejandro Quintero</t>
+    <t>José Luis Munuera</t>
+  </si>
+  <si>
+    <t>Pablo González</t>
   </si>
   <si>
     <t>Guillermo Cuadra</t>
   </si>
   <si>
-    <t>Javier Alberola</t>
-  </si>
-  <si>
-    <t>Víctor García</t>
-  </si>
-  <si>
-    <t>Alejandro Muñíz</t>
-  </si>
-  <si>
-    <t>José Luis Munuera</t>
+    <t>Isidro Díaz de Mera</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
+    <t>César Soto</t>
   </si>
   <si>
     <t>Miguel Ángel Ortiz Arias</t>
   </si>
   <si>
-    <t>Isidro Díaz de Mera</t>
-  </si>
-  <si>
     <t>Jose Maria Sánchez</t>
   </si>
   <si>
-    <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
-    <t>César Soto</t>
-  </si>
-  <si>
     <t>Juan Pulido</t>
-  </si>
-  <si>
-    <t>Pablo González</t>
   </si>
   <si>
     <t>José Sánchez</t>
@@ -274,19 +274,19 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1220.0</v>
+        <v>1295.0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.18518518518518</v>
+        <v>46.25</v>
       </c>
       <c r="F2" t="n">
-        <v>15050.0</v>
+        <v>16150.0</v>
       </c>
       <c r="G2" t="n">
-        <v>557.4074074074074</v>
+        <v>576.7857142857143</v>
       </c>
       <c r="H2" t="n">
         <v>11850.0</v>
@@ -304,7 +304,7 @@
         <v>39.77777777777778</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8597560975609757</v>
+        <v>1.9016152716593244</v>
       </c>
     </row>
     <row r="3">
@@ -315,37 +315,37 @@
         <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="D3" t="n">
-        <v>315.0</v>
+        <v>625.0</v>
       </c>
       <c r="E3" t="n">
-        <v>39.375</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>3000.0</v>
+        <v>9550.0</v>
       </c>
       <c r="G3" t="n">
-        <v>375.0</v>
+        <v>1061.111111111111</v>
       </c>
       <c r="H3" t="n">
-        <v>700.0</v>
+        <v>7150.0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.5</v>
+        <v>794.4444444444445</v>
       </c>
       <c r="J3" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="K3" t="n">
-        <v>42.125</v>
+        <v>36.22222222222222</v>
       </c>
       <c r="L3" t="n">
-        <v>48.5</v>
+        <v>27.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.5</v>
+        <v>2.3408239700374533</v>
       </c>
     </row>
     <row r="4">
@@ -359,34 +359,34 @@
         <v>8.0</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0</v>
+        <v>355.0</v>
       </c>
       <c r="E4" t="n">
-        <v>60.625</v>
+        <v>44.375</v>
       </c>
       <c r="F4" t="n">
-        <v>8900.0</v>
+        <v>5800.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1112.5</v>
+        <v>725.0</v>
       </c>
       <c r="H4" t="n">
-        <v>5600.0</v>
+        <v>3050.0</v>
       </c>
       <c r="I4" t="n">
-        <v>700.0</v>
+        <v>381.25</v>
       </c>
       <c r="J4" t="n">
-        <v>42.375</v>
+        <v>34.25</v>
       </c>
       <c r="K4" t="n">
-        <v>37.375</v>
+        <v>56.625</v>
       </c>
       <c r="L4" t="n">
-        <v>35.75</v>
+        <v>48.125</v>
       </c>
       <c r="M4" t="n">
-        <v>2.5526315789473686</v>
+        <v>1.6904761904761905</v>
       </c>
     </row>
     <row r="5">
@@ -400,34 +400,34 @@
         <v>8.0</v>
       </c>
       <c r="D5" t="n">
-        <v>450.0</v>
+        <v>210.0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.25</v>
+        <v>26.25</v>
       </c>
       <c r="F5" t="n">
-        <v>6350.0</v>
+        <v>1900.0</v>
       </c>
       <c r="G5" t="n">
-        <v>793.75</v>
+        <v>237.5</v>
       </c>
       <c r="H5" t="n">
-        <v>6150.0</v>
+        <v>800.0</v>
       </c>
       <c r="I5" t="n">
-        <v>768.75</v>
+        <v>100.0</v>
       </c>
       <c r="J5" t="n">
-        <v>38.875</v>
+        <v>45.875</v>
       </c>
       <c r="K5" t="n">
+        <v>17.625</v>
+      </c>
+      <c r="L5" t="n">
         <v>31.0</v>
       </c>
-      <c r="L5" t="n">
-        <v>34.25</v>
-      </c>
       <c r="M5" t="n">
-        <v>2.0737327188940093</v>
+        <v>1.0994764397905759</v>
       </c>
     </row>
     <row r="6">
@@ -441,34 +441,34 @@
         <v>8.0</v>
       </c>
       <c r="D6" t="n">
-        <v>505.0</v>
+        <v>315.0</v>
       </c>
       <c r="E6" t="n">
-        <v>63.125</v>
+        <v>39.375</v>
       </c>
       <c r="F6" t="n">
-        <v>7200.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G6" t="n">
-        <v>900.0</v>
+        <v>375.0</v>
       </c>
       <c r="H6" t="n">
-        <v>4000.0</v>
+        <v>700.0</v>
       </c>
       <c r="I6" t="n">
-        <v>500.0</v>
+        <v>87.5</v>
       </c>
       <c r="J6" t="n">
-        <v>35.25</v>
+        <v>42.0</v>
       </c>
       <c r="K6" t="n">
         <v>42.125</v>
       </c>
       <c r="L6" t="n">
-        <v>30.5</v>
+        <v>48.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.31651376146789</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -482,34 +482,34 @@
         <v>8.0</v>
       </c>
       <c r="D7" t="n">
-        <v>545.0</v>
+        <v>485.0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.125</v>
+        <v>60.625</v>
       </c>
       <c r="F7" t="n">
-        <v>8050.0</v>
+        <v>8900.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1006.25</v>
+        <v>1112.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5950.0</v>
+        <v>5600.0</v>
       </c>
       <c r="I7" t="n">
-        <v>743.75</v>
+        <v>700.0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.75</v>
+        <v>42.375</v>
       </c>
       <c r="K7" t="n">
-        <v>38.25</v>
+        <v>37.375</v>
       </c>
       <c r="L7" t="n">
-        <v>27.875</v>
+        <v>35.75</v>
       </c>
       <c r="M7" t="n">
-        <v>2.3191489361702127</v>
+        <v>2.5526315789473686</v>
       </c>
     </row>
     <row r="8">
@@ -523,34 +523,34 @@
         <v>8.0</v>
       </c>
       <c r="D8" t="n">
-        <v>675.0</v>
+        <v>450.0</v>
       </c>
       <c r="E8" t="n">
-        <v>84.375</v>
+        <v>56.25</v>
       </c>
       <c r="F8" t="n">
-        <v>14450.0</v>
+        <v>6350.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1806.25</v>
+        <v>793.75</v>
       </c>
       <c r="H8" t="n">
-        <v>11300.0</v>
+        <v>6150.0</v>
       </c>
       <c r="I8" t="n">
-        <v>1412.5</v>
+        <v>768.75</v>
       </c>
       <c r="J8" t="n">
-        <v>42.75</v>
+        <v>38.875</v>
       </c>
       <c r="K8" t="n">
-        <v>24.625</v>
+        <v>31.0</v>
       </c>
       <c r="L8" t="n">
-        <v>23.875</v>
+        <v>34.25</v>
       </c>
       <c r="M8" t="n">
-        <v>3.9244186046511627</v>
+        <v>2.0737327188940093</v>
       </c>
     </row>
     <row r="9">
@@ -561,37 +561,37 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="n">
-        <v>345.0</v>
+        <v>380.0</v>
       </c>
       <c r="E9" t="n">
-        <v>49.285714285714285</v>
+        <v>47.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5800.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G9" t="n">
-        <v>828.5714285714286</v>
+        <v>475.0</v>
       </c>
       <c r="H9" t="n">
-        <v>3050.0</v>
+        <v>4600.0</v>
       </c>
       <c r="I9" t="n">
-        <v>435.7142857142857</v>
+        <v>575.0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.142857142857146</v>
+        <v>36.0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.285714285714285</v>
+        <v>32.75</v>
       </c>
       <c r="L9" t="n">
-        <v>42.57142857142857</v>
+        <v>29.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.8449197860962567</v>
+        <v>1.7272727272727273</v>
       </c>
     </row>
     <row r="10">
@@ -602,37 +602,37 @@
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D10" t="n">
-        <v>395.0</v>
+        <v>505.0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.42857142857143</v>
+        <v>63.125</v>
       </c>
       <c r="F10" t="n">
-        <v>6850.0</v>
+        <v>7200.0</v>
       </c>
       <c r="G10" t="n">
-        <v>978.5714285714286</v>
+        <v>900.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4950.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>707.1428571428571</v>
+        <v>500.0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.857142857142858</v>
+        <v>35.25</v>
       </c>
       <c r="K10" t="n">
-        <v>33.42857142857143</v>
+        <v>42.125</v>
       </c>
       <c r="L10" t="n">
-        <v>24.714285714285715</v>
+        <v>30.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.323529411764706</v>
+        <v>2.31651376146789</v>
       </c>
     </row>
     <row r="11">
@@ -643,37 +643,37 @@
         <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11" t="n">
-        <v>180.0</v>
+        <v>425.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.714285714285715</v>
+        <v>53.125</v>
       </c>
       <c r="F11" t="n">
-        <v>1700.0</v>
+        <v>5650.0</v>
       </c>
       <c r="G11" t="n">
-        <v>242.85714285714286</v>
+        <v>706.25</v>
       </c>
       <c r="H11" t="n">
-        <v>600.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.71428571428571</v>
+        <v>300.0</v>
       </c>
       <c r="J11" t="n">
-        <v>40.142857142857146</v>
+        <v>46.25</v>
       </c>
       <c r="K11" t="n">
-        <v>17.0</v>
+        <v>54.125</v>
       </c>
       <c r="L11" t="n">
-        <v>32.285714285714285</v>
+        <v>35.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1538461538461537</v>
+        <v>2.2972972972972974</v>
       </c>
     </row>
     <row r="12">
@@ -684,37 +684,37 @@
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n">
-        <v>340.0</v>
+        <v>675.0</v>
       </c>
       <c r="E12" t="n">
-        <v>48.57142857142857</v>
+        <v>84.375</v>
       </c>
       <c r="F12" t="n">
-        <v>3800.0</v>
+        <v>14450.0</v>
       </c>
       <c r="G12" t="n">
-        <v>542.8571428571429</v>
+        <v>1806.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4200.0</v>
+        <v>11300.0</v>
       </c>
       <c r="I12" t="n">
-        <v>600.0</v>
+        <v>1412.5</v>
       </c>
       <c r="J12" t="n">
-        <v>41.142857142857146</v>
+        <v>42.75</v>
       </c>
       <c r="K12" t="n">
-        <v>33.57142857142857</v>
+        <v>24.625</v>
       </c>
       <c r="L12" t="n">
-        <v>29.571428571428573</v>
+        <v>23.875</v>
       </c>
       <c r="M12" t="n">
-        <v>1.7258883248730965</v>
+        <v>3.9244186046511627</v>
       </c>
     </row>
     <row r="13">
@@ -725,37 +725,37 @@
         <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13" t="n">
-        <v>345.0</v>
+        <v>450.0</v>
       </c>
       <c r="E13" t="n">
-        <v>49.285714285714285</v>
+        <v>56.25</v>
       </c>
       <c r="F13" t="n">
-        <v>4450.0</v>
+        <v>7000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>635.7142857142857</v>
+        <v>875.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2400.0</v>
+        <v>6600.0</v>
       </c>
       <c r="I13" t="n">
-        <v>342.85714285714283</v>
+        <v>825.0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.857142857142854</v>
+        <v>26.125</v>
       </c>
       <c r="K13" t="n">
-        <v>53.57142857142857</v>
+        <v>38.5</v>
       </c>
       <c r="L13" t="n">
-        <v>32.57142857142857</v>
+        <v>22.625</v>
       </c>
       <c r="M13" t="n">
-        <v>2.2549019607843137</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="14">
@@ -766,37 +766,37 @@
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D14" t="n">
-        <v>380.0</v>
+        <v>300.0</v>
       </c>
       <c r="E14" t="n">
-        <v>54.285714285714285</v>
+        <v>37.5</v>
       </c>
       <c r="F14" t="n">
-        <v>5800.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G14" t="n">
-        <v>828.5714285714286</v>
+        <v>375.0</v>
       </c>
       <c r="H14" t="n">
-        <v>5400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I14" t="n">
-        <v>771.4285714285714</v>
+        <v>312.5</v>
       </c>
       <c r="J14" t="n">
-        <v>26.857142857142858</v>
+        <v>42.75</v>
       </c>
       <c r="K14" t="n">
-        <v>41.714285714285715</v>
+        <v>41.625</v>
       </c>
       <c r="L14" t="n">
-        <v>23.571428571428573</v>
+        <v>32.375</v>
       </c>
       <c r="M14" t="n">
-        <v>2.4203821656050954</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="15">
@@ -810,34 +810,34 @@
         <v>7.0</v>
       </c>
       <c r="D15" t="n">
-        <v>370.0</v>
+        <v>395.0</v>
       </c>
       <c r="E15" t="n">
-        <v>52.857142857142854</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="F15" t="n">
-        <v>4600.0</v>
+        <v>6850.0</v>
       </c>
       <c r="G15" t="n">
-        <v>657.1428571428571</v>
+        <v>978.5714285714286</v>
       </c>
       <c r="H15" t="n">
-        <v>4000.0</v>
+        <v>7350.0</v>
       </c>
       <c r="I15" t="n">
-        <v>571.4285714285714</v>
+        <v>1050.0</v>
       </c>
       <c r="J15" t="n">
-        <v>45.142857142857146</v>
+        <v>31.142857142857142</v>
       </c>
       <c r="K15" t="n">
-        <v>25.0</v>
+        <v>39.285714285714285</v>
       </c>
       <c r="L15" t="n">
-        <v>37.57142857142857</v>
+        <v>30.571428571428573</v>
       </c>
       <c r="M15" t="n">
-        <v>2.6056338028169015</v>
+        <v>2.323529411764706</v>
       </c>
     </row>
     <row r="16">
@@ -848,37 +848,37 @@
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D16" t="n">
-        <v>330.0</v>
+        <v>360.0</v>
       </c>
       <c r="E16" t="n">
-        <v>55.0</v>
+        <v>51.42857142857143</v>
       </c>
       <c r="F16" t="n">
-        <v>4400.0</v>
+        <v>4600.0</v>
       </c>
       <c r="G16" t="n">
-        <v>733.3333333333334</v>
+        <v>657.1428571428571</v>
       </c>
       <c r="H16" t="n">
-        <v>3800.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I16" t="n">
-        <v>633.3333333333334</v>
+        <v>571.4285714285714</v>
       </c>
       <c r="J16" t="n">
-        <v>37.833333333333336</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="K16" t="n">
-        <v>37.0</v>
+        <v>33.42857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>33.166666666666664</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="M16" t="n">
-        <v>2.0245398773006134</v>
+        <v>1.978021978021978</v>
       </c>
     </row>
     <row r="17">
@@ -889,37 +889,37 @@
         <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17" t="n">
-        <v>310.0</v>
+        <v>385.0</v>
       </c>
       <c r="E17" t="n">
-        <v>51.666666666666664</v>
+        <v>55.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3800.0</v>
+        <v>5050.0</v>
       </c>
       <c r="G17" t="n">
-        <v>633.3333333333334</v>
+        <v>721.4285714285714</v>
       </c>
       <c r="H17" t="n">
-        <v>2500.0</v>
+        <v>5050.0</v>
       </c>
       <c r="I17" t="n">
-        <v>416.6666666666667</v>
+        <v>721.4285714285714</v>
       </c>
       <c r="J17" t="n">
-        <v>59.166666666666664</v>
+        <v>42.142857142857146</v>
       </c>
       <c r="K17" t="n">
-        <v>35.5</v>
+        <v>43.285714285714285</v>
       </c>
       <c r="L17" t="n">
-        <v>35.0</v>
+        <v>30.571428571428573</v>
       </c>
       <c r="M17" t="n">
-        <v>1.8674698795180722</v>
+        <v>2.037037037037037</v>
       </c>
     </row>
     <row r="18">
@@ -930,37 +930,37 @@
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18" t="n">
-        <v>290.0</v>
+        <v>270.0</v>
       </c>
       <c r="E18" t="n">
-        <v>48.333333333333336</v>
+        <v>38.57142857142857</v>
       </c>
       <c r="F18" t="n">
-        <v>3100.0</v>
+        <v>3000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>516.6666666666666</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="H18" t="n">
-        <v>2800.0</v>
+        <v>2600.0</v>
       </c>
       <c r="I18" t="n">
-        <v>466.6666666666667</v>
+        <v>371.42857142857144</v>
       </c>
       <c r="J18" t="n">
-        <v>44.666666666666664</v>
+        <v>44.857142857142854</v>
       </c>
       <c r="K18" t="n">
-        <v>42.833333333333336</v>
+        <v>44.57142857142857</v>
       </c>
       <c r="L18" t="n">
-        <v>31.166666666666668</v>
+        <v>49.0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.7682926829268293</v>
+        <v>1.7307692307692308</v>
       </c>
     </row>
     <row r="19">
@@ -971,37 +971,37 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D19" t="n">
-        <v>240.0</v>
+        <v>410.0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.0</v>
+        <v>58.57142857142857</v>
       </c>
       <c r="F19" t="n">
-        <v>3000.0</v>
+        <v>7200.0</v>
       </c>
       <c r="G19" t="n">
-        <v>500.0</v>
+        <v>1028.5714285714287</v>
       </c>
       <c r="H19" t="n">
-        <v>2600.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I19" t="n">
-        <v>433.3333333333333</v>
+        <v>571.4285714285714</v>
       </c>
       <c r="J19" t="n">
-        <v>52.333333333333336</v>
+        <v>27.571428571428573</v>
       </c>
       <c r="K19" t="n">
-        <v>43.0</v>
+        <v>33.285714285714285</v>
       </c>
       <c r="L19" t="n">
-        <v>48.166666666666664</v>
+        <v>26.714285714285715</v>
       </c>
       <c r="M19" t="n">
-        <v>1.7518248175182483</v>
+        <v>2.6451612903225805</v>
       </c>
     </row>
     <row r="20">
@@ -1012,37 +1012,37 @@
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D20" t="n">
-        <v>350.0</v>
+        <v>370.0</v>
       </c>
       <c r="E20" t="n">
-        <v>58.333333333333336</v>
+        <v>52.857142857142854</v>
       </c>
       <c r="F20" t="n">
-        <v>6400.0</v>
+        <v>4600.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1066.6666666666667</v>
+        <v>657.1428571428571</v>
       </c>
       <c r="H20" t="n">
-        <v>3100.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I20" t="n">
-        <v>516.6666666666666</v>
+        <v>571.4285714285714</v>
       </c>
       <c r="J20" t="n">
-        <v>29.333333333333332</v>
+        <v>45.142857142857146</v>
       </c>
       <c r="K20" t="n">
-        <v>35.833333333333336</v>
+        <v>25.0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.333333333333332</v>
+        <v>37.57142857142857</v>
       </c>
       <c r="M20" t="n">
-        <v>2.6923076923076925</v>
+        <v>2.6056338028169015</v>
       </c>
     </row>
     <row r="21">
@@ -1056,34 +1056,34 @@
         <v>6.0</v>
       </c>
       <c r="D21" t="n">
-        <v>465.0</v>
+        <v>310.0</v>
       </c>
       <c r="E21" t="n">
-        <v>77.5</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="F21" t="n">
-        <v>9200.0</v>
+        <v>3800.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1533.3333333333333</v>
+        <v>633.3333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>5650.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I21" t="n">
-        <v>941.6666666666666</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>42.0</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="K21" t="n">
-        <v>37.333333333333336</v>
+        <v>35.5</v>
       </c>
       <c r="L21" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.1</v>
+        <v>1.8674698795180722</v>
       </c>
     </row>
     <row r="22">
@@ -1097,34 +1097,34 @@
         <v>6.0</v>
       </c>
       <c r="D22" t="n">
-        <v>250.0</v>
+        <v>465.0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.666666666666664</v>
+        <v>77.5</v>
       </c>
       <c r="F22" t="n">
-        <v>2700.0</v>
+        <v>9200.0</v>
       </c>
       <c r="G22" t="n">
-        <v>450.0</v>
+        <v>1533.3333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>2100.0</v>
+        <v>5650.0</v>
       </c>
       <c r="I22" t="n">
-        <v>350.0</v>
+        <v>941.6666666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>42.5</v>
+        <v>42.0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.5</v>
+        <v>37.333333333333336</v>
       </c>
       <c r="L22" t="n">
-        <v>28.666666666666668</v>
+        <v>25.0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.5060240963855422</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
